--- a/Code/Results/Cases/Case_5_217/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_217/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9967366788311602</v>
+        <v>1.029170723896049</v>
       </c>
       <c r="D2">
-        <v>1.019129450577155</v>
+        <v>1.037835783583608</v>
       </c>
       <c r="E2">
-        <v>1.00361554203957</v>
+        <v>1.029037989954252</v>
       </c>
       <c r="F2">
-        <v>1.01866076262062</v>
+        <v>1.044729243049703</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046224645465514</v>
+        <v>1.033768717741986</v>
       </c>
       <c r="J2">
-        <v>1.019015435305996</v>
+        <v>1.034318980332658</v>
       </c>
       <c r="K2">
-        <v>1.030328562537117</v>
+        <v>1.040625533420604</v>
       </c>
       <c r="L2">
-        <v>1.015024735388528</v>
+        <v>1.031853063021243</v>
       </c>
       <c r="M2">
-        <v>1.029866103629288</v>
+        <v>1.047499474445901</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.001675969437765</v>
+        <v>1.030200869198805</v>
       </c>
       <c r="D3">
-        <v>1.023032339918696</v>
+        <v>1.038657014648209</v>
       </c>
       <c r="E3">
-        <v>1.00758110805963</v>
+        <v>1.029914439594855</v>
       </c>
       <c r="F3">
-        <v>1.02329301724314</v>
+        <v>1.045740564816937</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047710257298865</v>
+        <v>1.033981050292772</v>
       </c>
       <c r="J3">
-        <v>1.022121049873994</v>
+        <v>1.034989631895561</v>
       </c>
       <c r="K3">
-        <v>1.033378761098846</v>
+        <v>1.041256623974853</v>
       </c>
       <c r="L3">
-        <v>1.018117897532801</v>
+        <v>1.032537389848686</v>
       </c>
       <c r="M3">
-        <v>1.03363628796697</v>
+        <v>1.048321571600923</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.004801205702738</v>
+        <v>1.030867524096433</v>
       </c>
       <c r="D4">
-        <v>1.025501693419153</v>
+        <v>1.039188047687956</v>
       </c>
       <c r="E4">
-        <v>1.010096535364575</v>
+        <v>1.030482019661196</v>
       </c>
       <c r="F4">
-        <v>1.026227492736948</v>
+        <v>1.046395116288663</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048634762105112</v>
+        <v>1.034116531359075</v>
       </c>
       <c r="J4">
-        <v>1.024082888445831</v>
+        <v>1.035423105956784</v>
       </c>
       <c r="K4">
-        <v>1.035301777859517</v>
+        <v>1.041663976785046</v>
       </c>
       <c r="L4">
-        <v>1.020074612447003</v>
+        <v>1.032980019327809</v>
       </c>
       <c r="M4">
-        <v>1.036019353736506</v>
+        <v>1.04885307395356</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.006098754331749</v>
+        <v>1.031147805300519</v>
       </c>
       <c r="D5">
-        <v>1.026526836181468</v>
+        <v>1.039411207336348</v>
       </c>
       <c r="E5">
-        <v>1.011142360158821</v>
+        <v>1.030720739350374</v>
       </c>
       <c r="F5">
-        <v>1.027446633272781</v>
+        <v>1.046670327040172</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04901482786017</v>
+        <v>1.034173029308594</v>
       </c>
       <c r="J5">
-        <v>1.024896609959167</v>
+        <v>1.035605222486323</v>
       </c>
       <c r="K5">
-        <v>1.036098463087773</v>
+        <v>1.041834986658392</v>
       </c>
       <c r="L5">
-        <v>1.020886866086031</v>
+        <v>1.033166058136727</v>
       </c>
       <c r="M5">
-        <v>1.037008125781216</v>
+        <v>1.049076409291361</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.00631568087529</v>
+        <v>1.031194866886334</v>
       </c>
       <c r="D6">
-        <v>1.026698214066019</v>
+        <v>1.039448671717826</v>
       </c>
       <c r="E6">
-        <v>1.011317287390857</v>
+        <v>1.030760827808359</v>
       </c>
       <c r="F6">
-        <v>1.027650496617985</v>
+        <v>1.046716538304767</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049078144389448</v>
+        <v>1.034182488674353</v>
       </c>
       <c r="J6">
-        <v>1.025032601045294</v>
+        <v>1.035635793838337</v>
       </c>
       <c r="K6">
-        <v>1.036231551573421</v>
+        <v>1.041863685802563</v>
       </c>
       <c r="L6">
-        <v>1.0210226504911</v>
+        <v>1.033197292355741</v>
       </c>
       <c r="M6">
-        <v>1.037173391403816</v>
+        <v>1.049113901910541</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.00481860682413</v>
+        <v>1.030871269151223</v>
       </c>
       <c r="D7">
-        <v>1.02551544182327</v>
+        <v>1.039191029899622</v>
       </c>
       <c r="E7">
-        <v>1.010110554976048</v>
+        <v>1.030485209017903</v>
       </c>
       <c r="F7">
-        <v>1.02624383927656</v>
+        <v>1.046398793522436</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048639874068576</v>
+        <v>1.034117288088831</v>
       </c>
       <c r="J7">
-        <v>1.024093804300232</v>
+        <v>1.035425539863059</v>
       </c>
       <c r="K7">
-        <v>1.035312468893661</v>
+        <v>1.041666262776122</v>
       </c>
       <c r="L7">
-        <v>1.02008550601239</v>
+        <v>1.032982505355666</v>
       </c>
       <c r="M7">
-        <v>1.036032616521945</v>
+        <v>1.048856058597453</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9984210026036157</v>
+        <v>1.029518849257446</v>
       </c>
       <c r="D8">
-        <v>1.020460341127677</v>
+        <v>1.038113396163743</v>
       </c>
       <c r="E8">
-        <v>1.004966466677527</v>
+        <v>1.029334094821863</v>
       </c>
       <c r="F8">
-        <v>1.020239617621406</v>
+        <v>1.045070990721332</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046734462201623</v>
+        <v>1.033840872184959</v>
       </c>
       <c r="J8">
-        <v>1.020075107577195</v>
+        <v>1.034545729746843</v>
       </c>
       <c r="K8">
-        <v>1.031370116705046</v>
+        <v>1.040839021124068</v>
       </c>
       <c r="L8">
-        <v>1.016079581669571</v>
+        <v>1.032084370533426</v>
       </c>
       <c r="M8">
-        <v>1.031152235697179</v>
+        <v>1.047777398709599</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.98657394960593</v>
+        <v>1.027136346468486</v>
       </c>
       <c r="D9">
-        <v>1.011101519198029</v>
+        <v>1.03621175980663</v>
       </c>
       <c r="E9">
-        <v>0.9954935160692944</v>
+        <v>1.027309228892544</v>
       </c>
       <c r="F9">
-        <v>1.00915151353694</v>
+        <v>1.042732476654477</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043085040986125</v>
+        <v>1.033339167094681</v>
       </c>
       <c r="J9">
-        <v>1.012609890361451</v>
+        <v>1.032991718883911</v>
       </c>
       <c r="K9">
-        <v>1.024017013623874</v>
+        <v>1.039373646951323</v>
       </c>
       <c r="L9">
-        <v>1.008660133434101</v>
+        <v>1.030500420181634</v>
       </c>
       <c r="M9">
-        <v>1.02209783845473</v>
+        <v>1.04587324751237</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9782431620965092</v>
+        <v>1.025548442063575</v>
       </c>
       <c r="D10">
-        <v>1.004526622693026</v>
+        <v>1.034942228615518</v>
       </c>
       <c r="E10">
-        <v>0.9888718815025286</v>
+        <v>1.025961743025359</v>
       </c>
       <c r="F10">
-        <v>1.001378770675634</v>
+        <v>1.041174339981538</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04044066169968</v>
+        <v>1.03299489093017</v>
       </c>
       <c r="J10">
-        <v>1.007347400901858</v>
+        <v>1.031953268537033</v>
       </c>
       <c r="K10">
-        <v>1.018814625730926</v>
+        <v>1.038391610744337</v>
       </c>
       <c r="L10">
-        <v>1.003445007016832</v>
+        <v>1.029443594723981</v>
       </c>
       <c r="M10">
-        <v>1.015723175535218</v>
+        <v>1.044601552548474</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9745216348013018</v>
+        <v>1.024860964033242</v>
       </c>
       <c r="D11">
-        <v>1.001592074799153</v>
+        <v>1.034392096100501</v>
       </c>
       <c r="E11">
-        <v>0.9859242219737202</v>
+        <v>1.025378850034463</v>
       </c>
       <c r="F11">
-        <v>0.9979132046945386</v>
+        <v>1.040499863339695</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039241730592534</v>
+        <v>1.032843494906371</v>
       </c>
       <c r="J11">
-        <v>1.004994145526441</v>
+        <v>1.031503033497974</v>
       </c>
       <c r="K11">
-        <v>1.016484029247535</v>
+        <v>1.037965170676135</v>
       </c>
       <c r="L11">
-        <v>1.001116559978923</v>
+        <v>1.028985779773875</v>
       </c>
       <c r="M11">
-        <v>1.012874582511251</v>
+        <v>1.044050364923433</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.973121052915766</v>
+        <v>1.024605618235262</v>
       </c>
       <c r="D12">
-        <v>1.000488160001227</v>
+        <v>1.034187690373553</v>
       </c>
       <c r="E12">
-        <v>0.9848165232790551</v>
+        <v>1.025162424940486</v>
       </c>
       <c r="F12">
-        <v>0.9966100367584632</v>
+        <v>1.040249364198648</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038787948718582</v>
+        <v>1.03278691115623</v>
       </c>
       <c r="J12">
-        <v>1.004108208840252</v>
+        <v>1.031335709453685</v>
       </c>
       <c r="K12">
-        <v>1.015606013608069</v>
+        <v>1.03780659023645</v>
       </c>
       <c r="L12">
-        <v>1.000240512847931</v>
+        <v>1.028815696879221</v>
       </c>
       <c r="M12">
-        <v>1.011802472576375</v>
+        <v>1.043845549306438</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9734223261890439</v>
+        <v>1.024660390137375</v>
       </c>
       <c r="D13">
-        <v>1.000725594610009</v>
+        <v>1.034231538891812</v>
       </c>
       <c r="E13">
-        <v>0.9850547201203204</v>
+        <v>1.025208844897214</v>
       </c>
       <c r="F13">
-        <v>0.9968903053971463</v>
+        <v>1.040303095681586</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038885674537063</v>
+        <v>1.032799064328614</v>
       </c>
       <c r="J13">
-        <v>1.004298791404312</v>
+        <v>1.031371604947755</v>
       </c>
       <c r="K13">
-        <v>1.015794919326681</v>
+        <v>1.037840614489968</v>
       </c>
       <c r="L13">
-        <v>1.000428943051739</v>
+        <v>1.028852181590492</v>
       </c>
       <c r="M13">
-        <v>1.012033090661759</v>
+        <v>1.043889486564429</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9744062409160464</v>
+        <v>1.024839856781968</v>
       </c>
       <c r="D14">
-        <v>1.001501112730061</v>
+        <v>1.034375201120709</v>
       </c>
       <c r="E14">
-        <v>0.9858329248698897</v>
+        <v>1.025360958484085</v>
       </c>
       <c r="F14">
-        <v>0.9978058142303531</v>
+        <v>1.040479156357121</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03920439523615</v>
+        <v>1.032838824783727</v>
       </c>
       <c r="J14">
-        <v>1.004921158933921</v>
+        <v>1.031489204207223</v>
       </c>
       <c r="K14">
-        <v>1.016411707456029</v>
+        <v>1.037952066069669</v>
       </c>
       <c r="L14">
-        <v>1.001044376922935</v>
+        <v>1.02897172127925</v>
       </c>
       <c r="M14">
-        <v>1.012786252007326</v>
+        <v>1.044033436429955</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9750100124426514</v>
+        <v>1.024950433976319</v>
       </c>
       <c r="D15">
-        <v>1.001977071093973</v>
+        <v>1.034463707963043</v>
       </c>
       <c r="E15">
-        <v>0.9863106829986863</v>
+        <v>1.025454692273032</v>
       </c>
       <c r="F15">
-        <v>0.9983677543824682</v>
+        <v>1.040587637339215</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039399639596295</v>
+        <v>1.032863276339818</v>
       </c>
       <c r="J15">
-        <v>1.005303032433502</v>
+        <v>1.031561649512383</v>
       </c>
       <c r="K15">
-        <v>1.016790077970449</v>
+        <v>1.038020711014845</v>
       </c>
       <c r="L15">
-        <v>1.001422068663004</v>
+        <v>1.029045369658178</v>
       </c>
       <c r="M15">
-        <v>1.013248419048416</v>
+        <v>1.044122118106277</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9784876506663224</v>
+        <v>1.025594069708064</v>
       </c>
       <c r="D16">
-        <v>1.004719472344444</v>
+        <v>1.034978730366154</v>
       </c>
       <c r="E16">
-        <v>0.9890657527830954</v>
+        <v>1.026000439926246</v>
       </c>
       <c r="F16">
-        <v>1.001606589250301</v>
+        <v>1.041219107170271</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040519066165818</v>
+        <v>1.033004889690496</v>
       </c>
       <c r="J16">
-        <v>1.00750195505026</v>
+        <v>1.03198313697771</v>
       </c>
       <c r="K16">
-        <v>1.018967606017928</v>
+        <v>1.038419886673474</v>
       </c>
       <c r="L16">
-        <v>1.003598007695374</v>
+        <v>1.029473974160547</v>
       </c>
       <c r="M16">
-        <v>1.015910304045807</v>
+        <v>1.044638121814536</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.980637761742024</v>
+        <v>1.025997830757015</v>
       </c>
       <c r="D17">
-        <v>1.006415760028976</v>
+        <v>1.035301679098512</v>
       </c>
       <c r="E17">
-        <v>0.9907719056863685</v>
+        <v>1.026342927980669</v>
       </c>
       <c r="F17">
-        <v>1.003610866523985</v>
+        <v>1.041615267197935</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041206585776716</v>
+        <v>1.03309309854415</v>
       </c>
       <c r="J17">
-        <v>1.00886088864457</v>
+        <v>1.032247370086398</v>
       </c>
       <c r="K17">
-        <v>1.020312225156609</v>
+        <v>1.038669954885548</v>
       </c>
       <c r="L17">
-        <v>1.004943694893301</v>
+        <v>1.029742772491174</v>
       </c>
       <c r="M17">
-        <v>1.017555879002649</v>
+        <v>1.04496165429739</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9818809397558516</v>
+        <v>1.026233346925997</v>
       </c>
       <c r="D18">
-        <v>1.007396778916312</v>
+        <v>1.035490009339718</v>
       </c>
       <c r="E18">
-        <v>0.9917593652370927</v>
+        <v>1.026542751128645</v>
       </c>
       <c r="F18">
-        <v>1.004770350741493</v>
+        <v>1.041846360565334</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041602428929086</v>
+        <v>1.033144325196647</v>
       </c>
       <c r="J18">
-        <v>1.009646382541632</v>
+        <v>1.032401436884477</v>
       </c>
       <c r="K18">
-        <v>1.021089044213517</v>
+        <v>1.038815698480284</v>
       </c>
       <c r="L18">
-        <v>1.005721875194335</v>
+        <v>1.029899538440151</v>
       </c>
       <c r="M18">
-        <v>1.018507246643988</v>
+        <v>1.045150313642158</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9823030061195691</v>
+        <v>1.026313653414345</v>
       </c>
       <c r="D19">
-        <v>1.007729878155747</v>
+        <v>1.035554218231125</v>
       </c>
       <c r="E19">
-        <v>0.9920947765542563</v>
+        <v>1.026610895081259</v>
       </c>
       <c r="F19">
-        <v>1.005164106441544</v>
+        <v>1.041925160797834</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041736533501418</v>
+        <v>1.03316175414272</v>
       </c>
       <c r="J19">
-        <v>1.009913021403838</v>
+        <v>1.032453960189376</v>
       </c>
       <c r="K19">
-        <v>1.021352669684995</v>
+        <v>1.038865373426626</v>
       </c>
       <c r="L19">
-        <v>1.005986089500204</v>
+        <v>1.029952988246194</v>
       </c>
       <c r="M19">
-        <v>1.018830223760539</v>
+        <v>1.045214632824444</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.980408214816643</v>
+        <v>1.025954510068853</v>
       </c>
       <c r="D20">
-        <v>1.006234638095579</v>
+        <v>1.035267033918498</v>
       </c>
       <c r="E20">
-        <v>0.9905896541963822</v>
+        <v>1.026306176492176</v>
       </c>
       <c r="F20">
-        <v>1.003396823334059</v>
+        <v>1.04157276091185</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041133359173783</v>
+        <v>1.033083657743921</v>
       </c>
       <c r="J20">
-        <v>1.008715831793483</v>
+        <v>1.03221902615455</v>
       </c>
       <c r="K20">
-        <v>1.020168737705272</v>
+        <v>1.03864313702754</v>
       </c>
       <c r="L20">
-        <v>1.004800016358373</v>
+        <v>1.029713934995424</v>
       </c>
       <c r="M20">
-        <v>1.017380205517229</v>
+        <v>1.044926947665989</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9741170151851777</v>
+        <v>1.024787007938587</v>
       </c>
       <c r="D21">
-        <v>1.001273131687889</v>
+        <v>1.034332897881728</v>
       </c>
       <c r="E21">
-        <v>0.9856041225609916</v>
+        <v>1.025316162409044</v>
       </c>
       <c r="F21">
-        <v>0.9975366661889348</v>
+        <v>1.040427310002883</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039110776003903</v>
+        <v>1.032827125938902</v>
       </c>
       <c r="J21">
-        <v>1.004738219169414</v>
+        <v>1.031454576547364</v>
       </c>
       <c r="K21">
-        <v>1.016230424276192</v>
+        <v>1.03791925136696</v>
       </c>
       <c r="L21">
-        <v>1.000863460081705</v>
+        <v>1.028936520646414</v>
       </c>
       <c r="M21">
-        <v>1.01256485795171</v>
+        <v>1.043991048987115</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9700553525751963</v>
+        <v>1.024053034828347</v>
       </c>
       <c r="D22">
-        <v>0.9980728474708969</v>
+        <v>1.033745210990955</v>
       </c>
       <c r="E22">
-        <v>0.9823950267522199</v>
+        <v>1.024694206732743</v>
       </c>
       <c r="F22">
-        <v>0.9937596527857009</v>
+        <v>1.03970730210371</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037790041846338</v>
+        <v>1.032663817919297</v>
       </c>
       <c r="J22">
-        <v>1.002168525248787</v>
+        <v>1.030973435247005</v>
       </c>
       <c r="K22">
-        <v>1.01368257854481</v>
+        <v>1.037463065200833</v>
       </c>
       <c r="L22">
-        <v>0.9983234992841</v>
+        <v>1.028447555791217</v>
       </c>
       <c r="M22">
-        <v>1.009455754158445</v>
+        <v>1.043402149746786</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9722189603988517</v>
+        <v>1.024442120149381</v>
       </c>
       <c r="D23">
-        <v>0.9997772975188779</v>
+        <v>1.034056788695649</v>
       </c>
       <c r="E23">
-        <v>0.9841035457988307</v>
+        <v>1.025023869097191</v>
       </c>
       <c r="F23">
-        <v>0.9957710031447433</v>
+        <v>1.040088974464161</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038494961483633</v>
+        <v>1.03275058159461</v>
       </c>
       <c r="J23">
-        <v>1.003537515028108</v>
+        <v>1.031228544786316</v>
       </c>
       <c r="K23">
-        <v>1.015040253658869</v>
+        <v>1.037704997542567</v>
       </c>
       <c r="L23">
-        <v>0.9996763452002942</v>
+        <v>1.028706781637326</v>
       </c>
       <c r="M23">
-        <v>1.011111939346406</v>
+        <v>1.04371438008193</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9805119709368658</v>
+        <v>1.025974084794577</v>
       </c>
       <c r="D24">
-        <v>1.006316505196466</v>
+        <v>1.035282688708523</v>
       </c>
       <c r="E24">
-        <v>0.990672029575167</v>
+        <v>1.026322782735873</v>
       </c>
       <c r="F24">
-        <v>1.003493569768198</v>
+        <v>1.041591967611225</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041166463091561</v>
+        <v>1.033087924327515</v>
       </c>
       <c r="J24">
-        <v>1.00878139878714</v>
+        <v>1.03223183372997</v>
       </c>
       <c r="K24">
-        <v>1.020233596561246</v>
+        <v>1.038655255224557</v>
       </c>
       <c r="L24">
-        <v>1.004864959276769</v>
+        <v>1.02972696547888</v>
       </c>
       <c r="M24">
-        <v>1.017459610918704</v>
+        <v>1.044942630258399</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9897093102402714</v>
+        <v>1.027752204946177</v>
       </c>
       <c r="D25">
-        <v>1.013577649329918</v>
+        <v>1.036703694417066</v>
       </c>
       <c r="E25">
-        <v>0.9979940301949953</v>
+        <v>1.027832280927728</v>
       </c>
       <c r="F25">
-        <v>1.01208210636535</v>
+        <v>1.043336887402372</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044064586194679</v>
+        <v>1.033470600226364</v>
       </c>
       <c r="J25">
-        <v>1.014588030493723</v>
+        <v>1.033393900471737</v>
       </c>
       <c r="K25">
-        <v>1.025968783754013</v>
+        <v>1.039753386351722</v>
       </c>
       <c r="L25">
-        <v>1.010623566280327</v>
+        <v>1.030910062842991</v>
       </c>
       <c r="M25">
-        <v>1.024495714416996</v>
+        <v>1.046365917262673</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_217/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_217/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.029170723896049</v>
+        <v>0.9967366788311598</v>
       </c>
       <c r="D2">
-        <v>1.037835783583608</v>
+        <v>1.019129450577154</v>
       </c>
       <c r="E2">
-        <v>1.029037989954252</v>
+        <v>1.003615542039569</v>
       </c>
       <c r="F2">
-        <v>1.044729243049703</v>
+        <v>1.018660762620619</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033768717741986</v>
+        <v>1.046224645465514</v>
       </c>
       <c r="J2">
-        <v>1.034318980332658</v>
+        <v>1.019015435305995</v>
       </c>
       <c r="K2">
-        <v>1.040625533420604</v>
+        <v>1.030328562537116</v>
       </c>
       <c r="L2">
-        <v>1.031853063021243</v>
+        <v>1.015024735388527</v>
       </c>
       <c r="M2">
-        <v>1.047499474445901</v>
+        <v>1.029866103629287</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
+        <v>1.005712725503999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.030200869198805</v>
+        <v>1.001675969437765</v>
       </c>
       <c r="D3">
-        <v>1.038657014648209</v>
+        <v>1.023032339918696</v>
       </c>
       <c r="E3">
-        <v>1.029914439594855</v>
+        <v>1.00758110805963</v>
       </c>
       <c r="F3">
-        <v>1.045740564816937</v>
+        <v>1.02329301724314</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033981050292772</v>
+        <v>1.047710257298865</v>
       </c>
       <c r="J3">
-        <v>1.034989631895561</v>
+        <v>1.022121049873994</v>
       </c>
       <c r="K3">
-        <v>1.041256623974853</v>
+        <v>1.033378761098845</v>
       </c>
       <c r="L3">
-        <v>1.032537389848686</v>
+        <v>1.018117897532801</v>
       </c>
       <c r="M3">
-        <v>1.048321571600923</v>
+        <v>1.033636287966969</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.030867524096433</v>
+        <v>1.004801205702737</v>
       </c>
       <c r="D4">
-        <v>1.039188047687956</v>
+        <v>1.025501693419153</v>
       </c>
       <c r="E4">
-        <v>1.030482019661196</v>
+        <v>1.010096535364575</v>
       </c>
       <c r="F4">
-        <v>1.046395116288663</v>
+        <v>1.026227492736948</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034116531359075</v>
+        <v>1.048634762105111</v>
       </c>
       <c r="J4">
-        <v>1.035423105956784</v>
+        <v>1.02408288844583</v>
       </c>
       <c r="K4">
-        <v>1.041663976785046</v>
+        <v>1.035301777859517</v>
       </c>
       <c r="L4">
-        <v>1.032980019327809</v>
+        <v>1.020074612447002</v>
       </c>
       <c r="M4">
-        <v>1.04885307395356</v>
+        <v>1.036019353736505</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.031147805300519</v>
+        <v>1.00609875433175</v>
       </c>
       <c r="D5">
-        <v>1.039411207336348</v>
+        <v>1.026526836181469</v>
       </c>
       <c r="E5">
-        <v>1.030720739350374</v>
+        <v>1.011142360158822</v>
       </c>
       <c r="F5">
-        <v>1.046670327040172</v>
+        <v>1.027446633272782</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034173029308594</v>
+        <v>1.049014827860171</v>
       </c>
       <c r="J5">
-        <v>1.035605222486323</v>
+        <v>1.024896609959168</v>
       </c>
       <c r="K5">
-        <v>1.041834986658392</v>
+        <v>1.036098463087774</v>
       </c>
       <c r="L5">
-        <v>1.033166058136727</v>
+        <v>1.020886866086031</v>
       </c>
       <c r="M5">
-        <v>1.049076409291361</v>
+        <v>1.037008125781218</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.031194866886334</v>
+        <v>1.00631568087529</v>
       </c>
       <c r="D6">
-        <v>1.039448671717826</v>
+        <v>1.026698214066019</v>
       </c>
       <c r="E6">
-        <v>1.030760827808359</v>
+        <v>1.011317287390857</v>
       </c>
       <c r="F6">
-        <v>1.046716538304767</v>
+        <v>1.027650496617985</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034182488674353</v>
+        <v>1.049078144389448</v>
       </c>
       <c r="J6">
-        <v>1.035635793838337</v>
+        <v>1.025032601045294</v>
       </c>
       <c r="K6">
-        <v>1.041863685802563</v>
+        <v>1.036231551573421</v>
       </c>
       <c r="L6">
-        <v>1.033197292355741</v>
+        <v>1.0210226504911</v>
       </c>
       <c r="M6">
-        <v>1.049113901910541</v>
+        <v>1.037173391403816</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.030871269151223</v>
+        <v>1.00481860682413</v>
       </c>
       <c r="D7">
-        <v>1.039191029899622</v>
+        <v>1.02551544182327</v>
       </c>
       <c r="E7">
-        <v>1.030485209017903</v>
+        <v>1.010110554976048</v>
       </c>
       <c r="F7">
-        <v>1.046398793522436</v>
+        <v>1.02624383927656</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034117288088831</v>
+        <v>1.048639874068576</v>
       </c>
       <c r="J7">
-        <v>1.035425539863059</v>
+        <v>1.024093804300232</v>
       </c>
       <c r="K7">
-        <v>1.041666262776122</v>
+        <v>1.035312468893661</v>
       </c>
       <c r="L7">
-        <v>1.032982505355666</v>
+        <v>1.02008550601239</v>
       </c>
       <c r="M7">
-        <v>1.048856058597453</v>
+        <v>1.036032616521946</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.029518849257446</v>
+        <v>0.9984210026036157</v>
       </c>
       <c r="D8">
-        <v>1.038113396163743</v>
+        <v>1.020460341127678</v>
       </c>
       <c r="E8">
-        <v>1.029334094821863</v>
+        <v>1.004966466677526</v>
       </c>
       <c r="F8">
-        <v>1.045070990721332</v>
+        <v>1.020239617621407</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033840872184959</v>
+        <v>1.046734462201624</v>
       </c>
       <c r="J8">
-        <v>1.034545729746843</v>
+        <v>1.020075107577195</v>
       </c>
       <c r="K8">
-        <v>1.040839021124068</v>
+        <v>1.031370116705046</v>
       </c>
       <c r="L8">
-        <v>1.032084370533426</v>
+        <v>1.016079581669571</v>
       </c>
       <c r="M8">
-        <v>1.047777398709599</v>
+        <v>1.031152235697179</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.027136346468486</v>
+        <v>0.9865739496059299</v>
       </c>
       <c r="D9">
-        <v>1.03621175980663</v>
+        <v>1.011101519198029</v>
       </c>
       <c r="E9">
-        <v>1.027309228892544</v>
+        <v>0.9954935160692939</v>
       </c>
       <c r="F9">
-        <v>1.042732476654477</v>
+        <v>1.009151513536939</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033339167094681</v>
+        <v>1.043085040986125</v>
       </c>
       <c r="J9">
-        <v>1.032991718883911</v>
+        <v>1.012609890361451</v>
       </c>
       <c r="K9">
-        <v>1.039373646951323</v>
+        <v>1.024017013623873</v>
       </c>
       <c r="L9">
-        <v>1.030500420181634</v>
+        <v>1.0086601334341</v>
       </c>
       <c r="M9">
-        <v>1.04587324751237</v>
+        <v>1.022097838454729</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.025548442063575</v>
+        <v>0.9782431620965092</v>
       </c>
       <c r="D10">
-        <v>1.034942228615518</v>
+        <v>1.004526622693025</v>
       </c>
       <c r="E10">
-        <v>1.025961743025359</v>
+        <v>0.9888718815025284</v>
       </c>
       <c r="F10">
-        <v>1.041174339981538</v>
+        <v>1.001378770675634</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03299489093017</v>
+        <v>1.04044066169968</v>
       </c>
       <c r="J10">
-        <v>1.031953268537033</v>
+        <v>1.007347400901858</v>
       </c>
       <c r="K10">
-        <v>1.038391610744337</v>
+        <v>1.018814625730926</v>
       </c>
       <c r="L10">
-        <v>1.029443594723981</v>
+        <v>1.003445007016832</v>
       </c>
       <c r="M10">
-        <v>1.044601552548474</v>
+        <v>1.015723175535218</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.024860964033242</v>
+        <v>0.9745216348013006</v>
       </c>
       <c r="D11">
-        <v>1.034392096100501</v>
+        <v>1.001592074799152</v>
       </c>
       <c r="E11">
-        <v>1.025378850034463</v>
+        <v>0.9859242219737188</v>
       </c>
       <c r="F11">
-        <v>1.040499863339695</v>
+        <v>0.9979132046945376</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032843494906371</v>
+        <v>1.039241730592533</v>
       </c>
       <c r="J11">
-        <v>1.031503033497974</v>
+        <v>1.00499414552644</v>
       </c>
       <c r="K11">
-        <v>1.037965170676135</v>
+        <v>1.016484029247534</v>
       </c>
       <c r="L11">
-        <v>1.028985779773875</v>
+        <v>1.001116559978922</v>
       </c>
       <c r="M11">
-        <v>1.044050364923433</v>
+        <v>1.01287458251125</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.024605618235262</v>
+        <v>0.9731210529157659</v>
       </c>
       <c r="D12">
-        <v>1.034187690373553</v>
+        <v>1.000488160001227</v>
       </c>
       <c r="E12">
-        <v>1.025162424940486</v>
+        <v>0.9848165232790548</v>
       </c>
       <c r="F12">
-        <v>1.040249364198648</v>
+        <v>0.9966100367584628</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03278691115623</v>
+        <v>1.038787948718581</v>
       </c>
       <c r="J12">
-        <v>1.031335709453685</v>
+        <v>1.004108208840251</v>
       </c>
       <c r="K12">
-        <v>1.03780659023645</v>
+        <v>1.015606013608068</v>
       </c>
       <c r="L12">
-        <v>1.028815696879221</v>
+        <v>1.00024051284793</v>
       </c>
       <c r="M12">
-        <v>1.043845549306438</v>
+        <v>1.011802472576375</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.024660390137375</v>
+        <v>0.9734223261890446</v>
       </c>
       <c r="D13">
-        <v>1.034231538891812</v>
+        <v>1.00072559461001</v>
       </c>
       <c r="E13">
-        <v>1.025208844897214</v>
+        <v>0.985054720120321</v>
       </c>
       <c r="F13">
-        <v>1.040303095681586</v>
+        <v>0.9968903053971473</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032799064328614</v>
+        <v>1.038885674537063</v>
       </c>
       <c r="J13">
-        <v>1.031371604947755</v>
+        <v>1.004298791404313</v>
       </c>
       <c r="K13">
-        <v>1.037840614489968</v>
+        <v>1.015794919326682</v>
       </c>
       <c r="L13">
-        <v>1.028852181590492</v>
+        <v>1.00042894305174</v>
       </c>
       <c r="M13">
-        <v>1.043889486564429</v>
+        <v>1.01203309066176</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.024839856781968</v>
+        <v>0.9744062409160461</v>
       </c>
       <c r="D14">
-        <v>1.034375201120709</v>
+        <v>1.001501112730061</v>
       </c>
       <c r="E14">
-        <v>1.025360958484085</v>
+        <v>0.9858329248698892</v>
       </c>
       <c r="F14">
-        <v>1.040479156357121</v>
+        <v>0.9978058142303528</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032838824783727</v>
+        <v>1.03920439523615</v>
       </c>
       <c r="J14">
-        <v>1.031489204207223</v>
+        <v>1.004921158933921</v>
       </c>
       <c r="K14">
-        <v>1.037952066069669</v>
+        <v>1.016411707456029</v>
       </c>
       <c r="L14">
-        <v>1.02897172127925</v>
+        <v>1.001044376922935</v>
       </c>
       <c r="M14">
-        <v>1.044033436429955</v>
+        <v>1.012786252007326</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.024950433976319</v>
+        <v>0.9750100124426521</v>
       </c>
       <c r="D15">
-        <v>1.034463707963043</v>
+        <v>1.001977071093974</v>
       </c>
       <c r="E15">
-        <v>1.025454692273032</v>
+        <v>0.9863106829986868</v>
       </c>
       <c r="F15">
-        <v>1.040587637339215</v>
+        <v>0.9983677543824693</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032863276339818</v>
+        <v>1.039399639596296</v>
       </c>
       <c r="J15">
-        <v>1.031561649512383</v>
+        <v>1.005303032433503</v>
       </c>
       <c r="K15">
-        <v>1.038020711014845</v>
+        <v>1.01679007797045</v>
       </c>
       <c r="L15">
-        <v>1.029045369658178</v>
+        <v>1.001422068663004</v>
       </c>
       <c r="M15">
-        <v>1.044122118106277</v>
+        <v>1.013248419048416</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.025594069708064</v>
+        <v>0.9784876506663227</v>
       </c>
       <c r="D16">
-        <v>1.034978730366154</v>
+        <v>1.004719472344444</v>
       </c>
       <c r="E16">
-        <v>1.026000439926246</v>
+        <v>0.9890657527830958</v>
       </c>
       <c r="F16">
-        <v>1.041219107170271</v>
+        <v>1.001606589250301</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033004889690496</v>
+        <v>1.040519066165819</v>
       </c>
       <c r="J16">
-        <v>1.03198313697771</v>
+        <v>1.00750195505026</v>
       </c>
       <c r="K16">
-        <v>1.038419886673474</v>
+        <v>1.018967606017928</v>
       </c>
       <c r="L16">
-        <v>1.029473974160547</v>
+        <v>1.003598007695375</v>
       </c>
       <c r="M16">
-        <v>1.044638121814536</v>
+        <v>1.015910304045807</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.025997830757015</v>
+        <v>0.9806377617420243</v>
       </c>
       <c r="D17">
-        <v>1.035301679098512</v>
+        <v>1.006415760028977</v>
       </c>
       <c r="E17">
-        <v>1.026342927980669</v>
+        <v>0.990771905686369</v>
       </c>
       <c r="F17">
-        <v>1.041615267197935</v>
+        <v>1.003610866523985</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03309309854415</v>
+        <v>1.041206585776717</v>
       </c>
       <c r="J17">
-        <v>1.032247370086398</v>
+        <v>1.00886088864457</v>
       </c>
       <c r="K17">
-        <v>1.038669954885548</v>
+        <v>1.02031222515661</v>
       </c>
       <c r="L17">
-        <v>1.029742772491174</v>
+        <v>1.004943694893302</v>
       </c>
       <c r="M17">
-        <v>1.04496165429739</v>
+        <v>1.017555879002649</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.026233346925997</v>
+        <v>0.9818809397558504</v>
       </c>
       <c r="D18">
-        <v>1.035490009339718</v>
+        <v>1.007396778916311</v>
       </c>
       <c r="E18">
-        <v>1.026542751128645</v>
+        <v>0.9917593652370918</v>
       </c>
       <c r="F18">
-        <v>1.041846360565334</v>
+        <v>1.004770350741492</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033144325196647</v>
+        <v>1.041602428929086</v>
       </c>
       <c r="J18">
-        <v>1.032401436884477</v>
+        <v>1.009646382541631</v>
       </c>
       <c r="K18">
-        <v>1.038815698480284</v>
+        <v>1.021089044213516</v>
       </c>
       <c r="L18">
-        <v>1.029899538440151</v>
+        <v>1.005721875194334</v>
       </c>
       <c r="M18">
-        <v>1.045150313642158</v>
+        <v>1.018507246643987</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.026313653414345</v>
+        <v>0.9823030061195693</v>
       </c>
       <c r="D19">
-        <v>1.035554218231125</v>
+        <v>1.007729878155747</v>
       </c>
       <c r="E19">
-        <v>1.026610895081259</v>
+        <v>0.9920947765542563</v>
       </c>
       <c r="F19">
-        <v>1.041925160797834</v>
+        <v>1.005164106441544</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03316175414272</v>
+        <v>1.041736533501418</v>
       </c>
       <c r="J19">
-        <v>1.032453960189376</v>
+        <v>1.009913021403838</v>
       </c>
       <c r="K19">
-        <v>1.038865373426626</v>
+        <v>1.021352669684995</v>
       </c>
       <c r="L19">
-        <v>1.029952988246194</v>
+        <v>1.005986089500205</v>
       </c>
       <c r="M19">
-        <v>1.045214632824444</v>
+        <v>1.01883022376054</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.025954510068853</v>
+        <v>0.9804082148166432</v>
       </c>
       <c r="D20">
-        <v>1.035267033918498</v>
+        <v>1.00623463809558</v>
       </c>
       <c r="E20">
-        <v>1.026306176492176</v>
+        <v>0.9905896541963821</v>
       </c>
       <c r="F20">
-        <v>1.04157276091185</v>
+        <v>1.003396823334058</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033083657743921</v>
+        <v>1.041133359173783</v>
       </c>
       <c r="J20">
-        <v>1.03221902615455</v>
+        <v>1.008715831793483</v>
       </c>
       <c r="K20">
-        <v>1.03864313702754</v>
+        <v>1.020168737705272</v>
       </c>
       <c r="L20">
-        <v>1.029713934995424</v>
+        <v>1.004800016358373</v>
       </c>
       <c r="M20">
-        <v>1.044926947665989</v>
+        <v>1.017380205517229</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.024787007938587</v>
+        <v>0.9741170151851775</v>
       </c>
       <c r="D21">
-        <v>1.034332897881728</v>
+        <v>1.001273131687889</v>
       </c>
       <c r="E21">
-        <v>1.025316162409044</v>
+        <v>0.9856041225609915</v>
       </c>
       <c r="F21">
-        <v>1.040427310002883</v>
+        <v>0.9975366661889344</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032827125938902</v>
+        <v>1.039110776003903</v>
       </c>
       <c r="J21">
-        <v>1.031454576547364</v>
+        <v>1.004738219169414</v>
       </c>
       <c r="K21">
-        <v>1.03791925136696</v>
+        <v>1.016230424276192</v>
       </c>
       <c r="L21">
-        <v>1.028936520646414</v>
+        <v>1.000863460081705</v>
       </c>
       <c r="M21">
-        <v>1.043991048987115</v>
+        <v>1.01256485795171</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.024053034828347</v>
+        <v>0.9700553525751962</v>
       </c>
       <c r="D22">
-        <v>1.033745210990955</v>
+        <v>0.9980728474708968</v>
       </c>
       <c r="E22">
-        <v>1.024694206732743</v>
+        <v>0.9823950267522195</v>
       </c>
       <c r="F22">
-        <v>1.03970730210371</v>
+        <v>0.9937596527857006</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032663817919297</v>
+        <v>1.037790041846337</v>
       </c>
       <c r="J22">
-        <v>1.030973435247005</v>
+        <v>1.002168525248787</v>
       </c>
       <c r="K22">
-        <v>1.037463065200833</v>
+        <v>1.01368257854481</v>
       </c>
       <c r="L22">
-        <v>1.028447555791217</v>
+        <v>0.9983234992840996</v>
       </c>
       <c r="M22">
-        <v>1.043402149746786</v>
+        <v>1.009455754158445</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.024442120149381</v>
+        <v>0.9722189603988516</v>
       </c>
       <c r="D23">
-        <v>1.034056788695649</v>
+        <v>0.9997772975188778</v>
       </c>
       <c r="E23">
-        <v>1.025023869097191</v>
+        <v>0.984103545798831</v>
       </c>
       <c r="F23">
-        <v>1.040088974464161</v>
+        <v>0.9957710031447428</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03275058159461</v>
+        <v>1.038494961483633</v>
       </c>
       <c r="J23">
-        <v>1.031228544786316</v>
+        <v>1.003537515028108</v>
       </c>
       <c r="K23">
-        <v>1.037704997542567</v>
+        <v>1.015040253658869</v>
       </c>
       <c r="L23">
-        <v>1.028706781637326</v>
+        <v>0.9996763452002944</v>
       </c>
       <c r="M23">
-        <v>1.04371438008193</v>
+        <v>1.011111939346406</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.025974084794577</v>
+        <v>0.9805119709368654</v>
       </c>
       <c r="D24">
-        <v>1.035282688708523</v>
+        <v>1.006316505196466</v>
       </c>
       <c r="E24">
-        <v>1.026322782735873</v>
+        <v>0.9906720295751664</v>
       </c>
       <c r="F24">
-        <v>1.041591967611225</v>
+        <v>1.003493569768198</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033087924327515</v>
+        <v>1.041166463091561</v>
       </c>
       <c r="J24">
-        <v>1.03223183372997</v>
+        <v>1.008781398787139</v>
       </c>
       <c r="K24">
-        <v>1.038655255224557</v>
+        <v>1.020233596561245</v>
       </c>
       <c r="L24">
-        <v>1.02972696547888</v>
+        <v>1.004864959276769</v>
       </c>
       <c r="M24">
-        <v>1.044942630258399</v>
+        <v>1.017459610918703</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.027752204946177</v>
+        <v>0.9897093102402703</v>
       </c>
       <c r="D25">
-        <v>1.036703694417066</v>
+        <v>1.013577649329917</v>
       </c>
       <c r="E25">
-        <v>1.027832280927728</v>
+        <v>0.9979940301949943</v>
       </c>
       <c r="F25">
-        <v>1.043336887402372</v>
+        <v>1.012082106365348</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033470600226364</v>
+        <v>1.044064586194678</v>
       </c>
       <c r="J25">
-        <v>1.033393900471737</v>
+        <v>1.014588030493722</v>
       </c>
       <c r="K25">
-        <v>1.039753386351722</v>
+        <v>1.025968783754011</v>
       </c>
       <c r="L25">
-        <v>1.030910062842991</v>
+        <v>1.010623566280326</v>
       </c>
       <c r="M25">
-        <v>1.046365917262673</v>
+        <v>1.024495714416995</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
